--- a/docs/examples/train-TR-13AB-1.xlsx
+++ b/docs/examples/train-TR-13AB-1.xlsx
@@ -8,24 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\tap-tsi\fte-tom\tom\docs\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57375A92-650F-4F20-9601-D9E1127EC75D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BDE969E1-6AF5-422F-91A0-D5D40A415028}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="0" windowWidth="28800" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -50,97 +40,97 @@
     <t>F</t>
   </si>
   <si>
-    <t>TR/8350/13AB/00/0/2020-12-01</t>
-  </si>
-  <si>
-    <t>TR/8350/13AB/00/0/2020-12-02</t>
-  </si>
-  <si>
-    <t>TR/8350/13AB/00/0/2020-12-03</t>
-  </si>
-  <si>
-    <t>TR/8350/13AB/00/0/2020-12-04</t>
-  </si>
-  <si>
-    <t>TR/8350/13AB/00/0/2020-12-05</t>
-  </si>
-  <si>
-    <t>TR/8350/13AB/00/3/2020-12-05</t>
-  </si>
-  <si>
-    <t>TR/8350/13AB/00/0/2020-12-07</t>
-  </si>
-  <si>
-    <t>TR/8350/13AB/00/0/2020-12-08</t>
-  </si>
-  <si>
-    <t>TR/8350/13AB/00/0/2020-12-09</t>
-  </si>
-  <si>
-    <t>TR/8350/13AB/00/0/2020-12-10</t>
-  </si>
-  <si>
-    <t>TR/8350/13AB/00/0/2020-12-11</t>
-  </si>
-  <si>
-    <t>TR/8350/13AB/00/0/2020-12-12</t>
-  </si>
-  <si>
-    <t>TR/8350/13AB/00/3/2020-12-12</t>
-  </si>
-  <si>
-    <t>TR/8350/13AB/00/0/2020-12-14</t>
-  </si>
-  <si>
-    <t>TR/8350/13AB/00/0/2020-12-15</t>
-  </si>
-  <si>
-    <t>TR/8350/13AB/00/0/2020-12-16</t>
-  </si>
-  <si>
-    <t>TR/8350/13AB/00/0/2020-12-17</t>
-  </si>
-  <si>
-    <t>TR/8350/13AB/00/0/2020-12-18</t>
-  </si>
-  <si>
-    <t>TR/8350/13AB/00/0/2020-12-19</t>
-  </si>
-  <si>
-    <t>TR/8350/13AB/00/3/2020-12-19</t>
-  </si>
-  <si>
-    <t>TR/8350/13AB/00/0/2020-12-21</t>
-  </si>
-  <si>
-    <t>TR/8350/13AB/00/0/2020-12-22</t>
-  </si>
-  <si>
-    <t>TR/8350/13AB/00/0/2020-12-23</t>
-  </si>
-  <si>
-    <t>TR/8350/13AB/00/0/2020-12-24</t>
-  </si>
-  <si>
-    <t>TR/8350/13AB/00/0/2020-12-25</t>
-  </si>
-  <si>
-    <t>TR/8350/13AB/00/0/2020-12-26</t>
-  </si>
-  <si>
-    <t>TR/8350/13AB/00/3/2020-12-26</t>
-  </si>
-  <si>
-    <t>TR/8350/13AB/00/0/2020-12-28</t>
-  </si>
-  <si>
-    <t>TR/8350/13AB/00/0/2020-12-29</t>
-  </si>
-  <si>
-    <t>TR/8350/13AB/00/0/2020-12-30</t>
-  </si>
-  <si>
-    <t>TR/8350/13AB/00/0/2020-12-31</t>
+    <t>TR/8350/13AB/2020/10.01/2020-12-01</t>
+  </si>
+  <si>
+    <t>TR/8350/13AB/2020/10.01/2020-12-02</t>
+  </si>
+  <si>
+    <t>TR/8350/13AB/2020/10.01/2020-12-03</t>
+  </si>
+  <si>
+    <t>TR/8350/13AB/2020/10.01/2020-12-04</t>
+  </si>
+  <si>
+    <t>TR/8350/13AB/2020/10.01/2020-12-05</t>
+  </si>
+  <si>
+    <t>TR/8350/13AB/2020/20.01/2020-12-05</t>
+  </si>
+  <si>
+    <t>TR/8350/13AB/2020/10.01/2020-12-07</t>
+  </si>
+  <si>
+    <t>TR/8350/13AB/2020/10.01/2020-12-08</t>
+  </si>
+  <si>
+    <t>TR/8350/13AB/2020/10.01/2020-12-09</t>
+  </si>
+  <si>
+    <t>TR/8350/13AB/2020/10.01/2020-12-10</t>
+  </si>
+  <si>
+    <t>TR/8350/13AB/2020/10.01/2020-12-11</t>
+  </si>
+  <si>
+    <t>TR/8350/13AB/2020/10.01/2020-12-12</t>
+  </si>
+  <si>
+    <t>TR/8350/13AB/2020/20.01/2020-12-12</t>
+  </si>
+  <si>
+    <t>TR/8350/13AB/2020/10.01/2020-12-14</t>
+  </si>
+  <si>
+    <t>TR/8350/13AB/2020/10.01/2020-12-15</t>
+  </si>
+  <si>
+    <t>TR/8350/13AB/2020/10.01/2020-12-16</t>
+  </si>
+  <si>
+    <t>TR/8350/13AB/2020/10.01/2020-12-17</t>
+  </si>
+  <si>
+    <t>TR/8350/13AB/2020/10.01/2020-12-18</t>
+  </si>
+  <si>
+    <t>TR/8350/13AB/2020/10.01/2020-12-19</t>
+  </si>
+  <si>
+    <t>TR/8350/13AB/2020/20.01/2020-12-19</t>
+  </si>
+  <si>
+    <t>TR/8350/13AB/2020/10.01/2020-12-21</t>
+  </si>
+  <si>
+    <t>TR/8350/13AB/2020/10.01/2020-12-22</t>
+  </si>
+  <si>
+    <t>TR/8350/13AB/2020/10.01/2020-12-23</t>
+  </si>
+  <si>
+    <t>TR/8350/13AB/2020/10.01/2020-12-24</t>
+  </si>
+  <si>
+    <t>TR/8350/13AB/2020/10.01/2020-12-25</t>
+  </si>
+  <si>
+    <t>TR/8350/13AB/2020/10.01/2020-12-26</t>
+  </si>
+  <si>
+    <t>TR/8350/13AB/2020/20.01/2020-12-26</t>
+  </si>
+  <si>
+    <t>TR/8350/13AB/2020/10.01/2020-12-28</t>
+  </si>
+  <si>
+    <t>TR/8350/13AB/2020/10.01/2020-12-29</t>
+  </si>
+  <si>
+    <t>TR/8350/13AB/2020/10.01/2020-12-30</t>
+  </si>
+  <si>
+    <t>TR/8350/13AB/2020/10.01/2020-12-31</t>
   </si>
 </sst>
 </file>
@@ -148,7 +138,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-407]ddd\ dd/mm/yy\ h:mm"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -212,16 +202,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="165" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
@@ -528,12 +519,12 @@
   <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="A27" sqref="A27:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="7" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -561,18 +552,16 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>44166.020833333343</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>44166.0625</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>44167.020833333343</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4">
+      <c r="G2" s="2">
         <v>44167.1875</v>
       </c>
     </row>
@@ -580,18 +569,16 @@
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>44167.020833333343</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>44167.0625</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>44168.020833333343</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4">
+      <c r="G3" s="2">
         <v>44168.1875</v>
       </c>
     </row>
@@ -599,18 +586,16 @@
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>44168.020833333343</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="2">
         <v>44168.0625</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>44169.020833333343</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4">
+      <c r="G4" s="2">
         <v>44169.1875</v>
       </c>
     </row>
@@ -618,55 +603,52 @@
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>44169.020833333343</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>44169.0625</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>44170.020833333343</v>
       </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4">
+      <c r="G5" s="2">
         <v>44170.1875</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3">
+      <c r="B6" s="4"/>
+      <c r="C6" s="5">
         <v>44170.020833333343</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>44170.0625</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>44171.020833333343</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4">
+      <c r="G6" s="2">
         <v>44171.1875</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="5">
         <v>44170.979166666657</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="4">
+      <c r="C7" s="4"/>
+      <c r="D7" s="2">
         <v>44171.0625</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>44172.020833333343</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="2">
         <v>44172.1875</v>
       </c>
     </row>
@@ -674,37 +656,33 @@
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>44172.020833333343</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="2">
         <v>44172.0625</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="2">
         <v>44173.020833333343</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="2">
         <v>44173.354166666657</v>
       </c>
-      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>44173.020833333343</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <v>44173.0625</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <v>44174.020833333343</v>
       </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4">
+      <c r="G9" s="2">
         <v>44174.1875</v>
       </c>
     </row>
@@ -712,18 +690,16 @@
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>44174.020833333343</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="2">
         <v>44174.0625</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="2">
         <v>44175.020833333343</v>
       </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4">
+      <c r="G10" s="2">
         <v>44175.1875</v>
       </c>
     </row>
@@ -731,18 +707,16 @@
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>44175.020833333343</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="2">
         <v>44175.0625</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="2">
         <v>44176.020833333343</v>
       </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4">
+      <c r="G11" s="2">
         <v>44176.1875</v>
       </c>
     </row>
@@ -750,56 +724,50 @@
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>44176.020833333343</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="2">
         <v>44176.0625</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <v>44177.020833333343</v>
       </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4">
+      <c r="G12" s="2">
         <v>44177.1875</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3">
+      <c r="C13" s="2">
         <v>44177.020833333343</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="2">
         <v>44177.0625</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="2">
         <v>44178.020833333343</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4">
+      <c r="G13" s="2">
         <v>44178.1875</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="2">
         <v>44177.979166666657</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="4">
+      <c r="D14" s="2">
         <v>44178.0625</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="2">
         <v>44179.020833333343</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4">
+      <c r="G14" s="2">
         <v>44179.1875</v>
       </c>
     </row>
@@ -807,37 +775,33 @@
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>44179.020833333343</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="2">
         <v>44179.0625</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="2">
         <v>44180.020833333343</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="2">
         <v>44180.354166666657</v>
       </c>
-      <c r="G15" s="4"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>44180.020833333343</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="2">
         <v>44180.0625</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="2">
         <v>44181.020833333343</v>
       </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4">
+      <c r="G16" s="2">
         <v>44181.1875</v>
       </c>
     </row>
@@ -845,18 +809,16 @@
       <c r="A17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4">
+      <c r="C17" s="2">
         <v>44181.020833333343</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="2">
         <v>44181.0625</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="2">
         <v>44182.020833333343</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4">
+      <c r="G17" s="2">
         <v>44182.1875</v>
       </c>
     </row>
@@ -864,18 +826,16 @@
       <c r="A18" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4">
+      <c r="C18" s="2">
         <v>44182.020833333343</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="2">
         <v>44182.0625</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="2">
         <v>44183.020833333343</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4">
+      <c r="G18" s="2">
         <v>44183.1875</v>
       </c>
     </row>
@@ -883,56 +843,52 @@
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4">
+      <c r="C19" s="2">
         <v>44183.020833333343</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="2">
         <v>44183.0625</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="2">
         <v>44184.020833333343</v>
       </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4">
+      <c r="G19" s="2">
         <v>44184.1875</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3">
+      <c r="B20" s="4"/>
+      <c r="C20" s="5">
         <v>44184.020833333343</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="2">
         <v>44184.0625</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="2">
         <v>44185.020833333343</v>
       </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4">
+      <c r="G20" s="2">
         <v>44185.1875</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="5">
         <v>44184.979166666657</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4">
+      <c r="C21" s="4"/>
+      <c r="D21" s="2">
         <v>44185.0625</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="2">
         <v>44186.020833333343</v>
       </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4">
+      <c r="G21" s="2">
         <v>44186.1875</v>
       </c>
     </row>
@@ -940,37 +896,33 @@
       <c r="A22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4">
+      <c r="C22" s="2">
         <v>44186.020833333343</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="2">
         <v>44186.0625</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="2">
         <v>44187.020833333343</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="2">
         <v>44187.354166666657</v>
       </c>
-      <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4">
+      <c r="C23" s="2">
         <v>44187.020833333343</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="2">
         <v>44187.0625</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="2">
         <v>44188.020833333343</v>
       </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4">
+      <c r="G23" s="2">
         <v>44188.1875</v>
       </c>
     </row>
@@ -978,18 +930,16 @@
       <c r="A24" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4">
+      <c r="C24" s="2">
         <v>44188.020833333343</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="2">
         <v>44188.0625</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="2">
         <v>44189.020833333343</v>
       </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4">
+      <c r="G24" s="2">
         <v>44189.1875</v>
       </c>
     </row>
@@ -997,18 +947,16 @@
       <c r="A25" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4">
+      <c r="C25" s="2">
         <v>44189.020833333343</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="2">
         <v>44189.0625</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="2">
         <v>44190.020833333343</v>
       </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4">
+      <c r="G25" s="2">
         <v>44190.1875</v>
       </c>
     </row>
@@ -1016,56 +964,52 @@
       <c r="A26" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4">
+      <c r="C26" s="2">
         <v>44190.020833333343</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="2">
         <v>44190.0625</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="2">
         <v>44191.020833333343</v>
       </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4">
+      <c r="G26" s="2">
         <v>44191.1875</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3">
+      <c r="B27" s="4"/>
+      <c r="C27" s="5">
         <v>44191.020833333343</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="2">
         <v>44191.0625</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="2">
         <v>44192.020833333343</v>
       </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4">
+      <c r="G27" s="2">
         <v>44192.1875</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="5">
         <v>44191.979166666657</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="4">
+      <c r="C28" s="4"/>
+      <c r="D28" s="2">
         <v>44192.0625</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="2">
         <v>44193.020833333343</v>
       </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4">
+      <c r="G28" s="2">
         <v>44193.1875</v>
       </c>
     </row>
@@ -1073,37 +1017,33 @@
       <c r="A29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4">
+      <c r="C29" s="2">
         <v>44193.020833333343</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="2">
         <v>44193.0625</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="2">
         <v>44194.020833333343</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="2">
         <v>44194.354166666657</v>
       </c>
-      <c r="G29" s="4"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4">
+      <c r="C30" s="2">
         <v>44194.020833333343</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="2">
         <v>44194.0625</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="2">
         <v>44195.020833333343</v>
       </c>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4">
+      <c r="G30" s="2">
         <v>44195.1875</v>
       </c>
     </row>
@@ -1111,18 +1051,16 @@
       <c r="A31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4">
+      <c r="C31" s="2">
         <v>44195.020833333343</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="2">
         <v>44195.0625</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="2">
         <v>44196.020833333343</v>
       </c>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4">
+      <c r="G31" s="2">
         <v>44196.1875</v>
       </c>
     </row>
@@ -1130,23 +1068,20 @@
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4">
+      <c r="C32" s="2">
         <v>44196.020833333343</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="2">
         <v>44196.0625</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="2">
         <v>44197.020833333343</v>
       </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4">
+      <c r="G32" s="2">
         <v>44197.1875</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/examples/train-TR-13AB-1.xlsx
+++ b/docs/examples/train-TR-13AB-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekte\tap-tsi\fte-tom\tom\docs\examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB2CE49-5E9F-4FF9-A62E-7A4DED39C5BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A819D1AA-3B1D-4E66-8AD5-EFBF8E07C154}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="28800" windowHeight="15750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="164">
   <si>
     <t>Departure A</t>
   </si>
@@ -509,13 +509,16 @@
   </si>
   <si>
     <t>Fri 01.01.21 04:30  1</t>
+  </si>
+  <si>
+    <t>Daily Train ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,13 +538,26 @@
       <name val="Lucida Console"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -571,12 +587,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -882,7 +903,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C14" sqref="A13:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -893,6 +914,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1011,10 +1035,11 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1034,12 +1059,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="C7" s="5"/>
       <c r="D7" s="1" t="s">
         <v>35</v>
       </c>
@@ -1172,10 +1198,11 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="s">
         <v>64</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1195,12 +1222,13 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="5" t="s">
         <v>69</v>
       </c>
+      <c r="C14" s="5"/>
       <c r="D14" s="1" t="s">
         <v>70</v>
       </c>
@@ -1333,10 +1361,11 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5" t="s">
         <v>99</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1356,12 +1385,13 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="5" t="s">
         <v>104</v>
       </c>
+      <c r="C21" s="5"/>
       <c r="D21" s="1" t="s">
         <v>105</v>
       </c>
@@ -1494,10 +1524,11 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5" t="s">
         <v>134</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -1517,12 +1548,13 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="5" t="s">
         <v>139</v>
       </c>
+      <c r="C28" s="5"/>
       <c r="D28" s="1" t="s">
         <v>140</v>
       </c>
